--- a/sofaplayer/Serie_A/Fiorentina_stats.xlsx
+++ b/sofaplayer/Serie_A/Fiorentina_stats.xlsx
@@ -1035,43 +1035,43 @@
         <v>835601</v>
       </c>
       <c r="E2" t="n">
-        <v>6.6809523809524</v>
+        <v>6.6772727272727</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="n">
-        <v>1644</v>
+        <v>1728</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
-        <v>12.6259</v>
+        <v>13.4143</v>
       </c>
       <c r="L2" t="n">
-        <v>274</v>
+        <v>246.85714285714</v>
       </c>
       <c r="M2" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O2" t="n">
         <v>16</v>
       </c>
       <c r="P2" t="n">
-        <v>6.8965517241379</v>
+        <v>7.9545454545455</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
         <v>100</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U2" t="n">
         <v>1</v>
@@ -1092,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y2" t="n">
         <v>3</v>
@@ -1101,10 +1101,10 @@
         <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.1592996</v>
+        <v>0.15992151</v>
       </c>
       <c r="AB2" t="n">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -1113,22 +1113,22 @@
         <v>2</v>
       </c>
       <c r="AE2" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AF2" t="n">
-        <v>72.727272727273</v>
+        <v>73.099415204678</v>
       </c>
       <c r="AG2" t="n">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AH2" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AI2" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ2" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AK2" t="n">
         <v>1</v>
@@ -1155,10 +1155,10 @@
         <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU2" t="n">
         <v>19</v>
@@ -1173,40 +1173,40 @@
         <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ2" t="n">
-        <v>37.735849056604</v>
+        <v>38.888888888889</v>
       </c>
       <c r="BA2" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BB2" t="n">
-        <v>46.774193548387</v>
+        <v>45.408163265306</v>
       </c>
       <c r="BC2" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="BD2" t="n">
-        <v>44.68085106383</v>
+        <v>44.520547945205</v>
       </c>
       <c r="BE2" t="n">
         <v>24</v>
       </c>
       <c r="BF2" t="n">
-        <v>53.333333333333</v>
+        <v>48</v>
       </c>
       <c r="BG2" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="BH2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BI2" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BJ2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BK2" t="n">
         <v>3</v>
@@ -1221,22 +1221,22 @@
         <v>2</v>
       </c>
       <c r="BO2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>140.3</v>
+        <v>146.9</v>
       </c>
       <c r="BR2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT2" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>45</v>
       </c>
       <c r="BW2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BX2" t="n">
         <v>0</v>
@@ -1254,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="CA2" t="n">
         <v>16</v>
       </c>
       <c r="CB2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CC2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CD2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CK2" t="n">
         <v>8</v>
@@ -1311,16 +1311,16 @@
         <v>2</v>
       </c>
       <c r="CS2" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="CT2" t="n">
         <v>6</v>
       </c>
       <c r="CU2" t="n">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="CV2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="DG2" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>958982</v>
       </c>
       <c r="E4" t="n">
-        <v>6.505</v>
+        <v>6.5095238095238</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" t="n">
         <v>10</v>
       </c>
       <c r="H4" t="n">
-        <v>1048</v>
+        <v>1060</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3174</v>
+        <v>4.3532</v>
       </c>
       <c r="L4" t="n">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="M4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
         <v>9</v>
       </c>
       <c r="P4" t="n">
-        <v>5.8823529411765</v>
+        <v>5.7142857142857</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.18253124</v>
+        <v>0.18312753</v>
       </c>
       <c r="AB4" t="n">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
@@ -1825,19 +1825,19 @@
         <v>8</v>
       </c>
       <c r="AE4" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF4" t="n">
-        <v>60.431654676259</v>
+        <v>60.714285714286</v>
       </c>
       <c r="AG4" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AH4" t="n">
         <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AJ4" t="n">
         <v>29</v>
@@ -1894,13 +1894,13 @@
         <v>76</v>
       </c>
       <c r="BB4" t="n">
-        <v>45.508982035928</v>
+        <v>44.186046511628</v>
       </c>
       <c r="BC4" t="n">
         <v>41</v>
       </c>
       <c r="BD4" t="n">
-        <v>56.164383561644</v>
+        <v>52.564102564103</v>
       </c>
       <c r="BE4" t="n">
         <v>35</v>
@@ -1909,10 +1909,10 @@
         <v>37.234042553191</v>
       </c>
       <c r="BG4" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="BH4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BI4" t="n">
         <v>28</v>
@@ -1939,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>130.1</v>
+        <v>136.7</v>
       </c>
       <c r="BR4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS4" t="n">
         <v>2</v>
@@ -1969,16 +1969,16 @@
         <v>29</v>
       </c>
       <c r="CA4" t="n">
+        <v>6</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>16</v>
+      </c>
+      <c r="CC4" t="n">
         <v>5</v>
       </c>
-      <c r="CB4" t="n">
-        <v>13</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>4</v>
-      </c>
       <c r="CD4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE4" t="n">
         <v>0</v>
@@ -2029,7 +2029,7 @@
         <v>4</v>
       </c>
       <c r="CU4" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="CV4" t="n">
         <v>59</v>
@@ -2065,7 +2065,7 @@
         <v>46</v>
       </c>
       <c r="DG4" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2459,16 +2459,16 @@
         <v>862223</v>
       </c>
       <c r="E6" t="n">
-        <v>7.1714285714286</v>
+        <v>7.15</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>317</v>
+        <v>407</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -2480,7 +2480,7 @@
         <v>0.4471</v>
       </c>
       <c r="L6" t="n">
-        <v>158.5</v>
+        <v>203.5</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
@@ -2525,10 +2525,10 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.88370514</v>
+        <v>0.88937725</v>
       </c>
       <c r="AB6" t="n">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="AC6" t="n">
         <v>2</v>
@@ -2537,25 +2537,25 @@
         <v>10</v>
       </c>
       <c r="AE6" t="n">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="AF6" t="n">
-        <v>93.27731092437</v>
+        <v>91.79104477611899</v>
       </c>
       <c r="AG6" t="n">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="AH6" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AI6" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AJ6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AK6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL6" t="n">
         <v>100</v>
@@ -2564,22 +2564,22 @@
         <v>6</v>
       </c>
       <c r="AN6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO6" t="n">
         <v>1</v>
       </c>
       <c r="AP6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ6" t="n">
         <v>1</v>
       </c>
       <c r="AR6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AS6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT6" t="n">
         <v>3</v>
@@ -2597,22 +2597,22 @@
         <v>0</v>
       </c>
       <c r="AY6" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ6" t="n">
-        <v>66.666666666667</v>
+        <v>68.421052631579</v>
       </c>
       <c r="BA6" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="BB6" t="n">
-        <v>77.777777777778</v>
+        <v>71.79487179487199</v>
       </c>
       <c r="BC6" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="BD6" t="n">
-        <v>76.92307692307701</v>
+        <v>71.052631578947</v>
       </c>
       <c r="BE6" t="n">
         <v>1</v>
@@ -2621,46 +2621,46 @@
         <v>100</v>
       </c>
       <c r="BG6" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="BH6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI6" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>9</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="BR6" t="n">
         <v>8</v>
       </c>
-      <c r="BJ6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>8</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>7</v>
-      </c>
       <c r="BS6" t="n">
         <v>2</v>
       </c>
       <c r="BT6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
@@ -2684,13 +2684,13 @@
         <v>2</v>
       </c>
       <c r="CB6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CC6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CD6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE6" t="n">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CK6" t="n">
         <v>1</v>
@@ -2735,13 +2735,13 @@
         <v>10</v>
       </c>
       <c r="CS6" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="CT6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CU6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="CV6" t="n">
         <v>0</v>
@@ -2756,10 +2756,10 @@
         <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DA6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DB6" t="n">
         <v>100</v>
@@ -2774,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="DG6" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -2815,40 +2815,40 @@
         <v>901850</v>
       </c>
       <c r="E7" t="n">
-        <v>7.1666666666667</v>
+        <v>7.2136363636364</v>
       </c>
       <c r="F7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" t="n">
-        <v>1548</v>
+        <v>1632</v>
       </c>
       <c r="I7" t="n">
         <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6711</v>
+        <v>1.3072</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1632</v>
       </c>
       <c r="M7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>5.2631578947368</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -2881,58 +2881,58 @@
         <v>3</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.83057303</v>
+        <v>2.85643973</v>
       </c>
       <c r="AB7" t="n">
-        <v>1330</v>
+        <v>1372</v>
       </c>
       <c r="AC7" t="n">
         <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AE7" t="n">
-        <v>947</v>
+        <v>968</v>
       </c>
       <c r="AF7" t="n">
-        <v>90.019011406844</v>
+        <v>89.795918367347</v>
       </c>
       <c r="AG7" t="n">
-        <v>1052</v>
+        <v>1078</v>
       </c>
       <c r="AH7" t="n">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="AI7" t="n">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="AJ7" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AK7" t="n">
         <v>69</v>
       </c>
       <c r="AL7" t="n">
-        <v>68.316831683168</v>
+        <v>66.346153846154</v>
       </c>
       <c r="AM7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN7" t="n">
-        <v>24.615384615385</v>
+        <v>25.757575757576</v>
       </c>
       <c r="AO7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP7" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AQ7" t="n">
         <v>16</v>
       </c>
       <c r="AR7" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AS7" t="n">
         <v>18</v>
@@ -2941,7 +2941,7 @@
         <v>15</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
         <v>1</v>
@@ -2953,22 +2953,22 @@
         <v>0</v>
       </c>
       <c r="AY7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ7" t="n">
-        <v>68.421052631579</v>
+        <v>71.428571428571</v>
       </c>
       <c r="BA7" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="BB7" t="n">
-        <v>55.11811023622</v>
+        <v>55.882352941176</v>
       </c>
       <c r="BC7" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="BD7" t="n">
-        <v>55.555555555556</v>
+        <v>56.296296296296</v>
       </c>
       <c r="BE7" t="n">
         <v>0</v>
@@ -2977,13 +2977,13 @@
         <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="BH7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BI7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
@@ -3001,22 +3001,22 @@
         <v>1</v>
       </c>
       <c r="BO7" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BP7" t="n">
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>150.5</v>
+        <v>158.7</v>
       </c>
       <c r="BR7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT7" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
@@ -3034,19 +3034,19 @@
         <v>3</v>
       </c>
       <c r="BZ7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CA7" t="n">
         <v>13</v>
       </c>
       <c r="CB7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="CC7" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="CD7" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CE7" t="n">
         <v>0</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CK7" t="n">
         <v>8</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="CR7" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="CS7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="CT7" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CU7" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="CV7" t="n">
         <v>1</v>
@@ -3112,13 +3112,13 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="DA7" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="DB7" t="n">
-        <v>67.857142857143</v>
+        <v>70.967741935484</v>
       </c>
       <c r="DC7" t="n">
         <v>0</v>
@@ -3130,16 +3130,16 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="DG7" t="n">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
       </c>
       <c r="DI7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DJ7" t="n">
         <v>2170203</v>
@@ -3527,16 +3527,16 @@
         <v>1114422</v>
       </c>
       <c r="E9" t="n">
-        <v>6.5736842105263</v>
+        <v>6.575</v>
       </c>
       <c r="F9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" t="n">
         <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>921</v>
+        <v>933</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0.7954</v>
       </c>
       <c r="L9" t="n">
-        <v>921</v>
+        <v>933</v>
       </c>
       <c r="M9" t="n">
         <v>9</v>
@@ -3593,34 +3593,34 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.30654694</v>
+        <v>0.31172025</v>
       </c>
       <c r="AB9" t="n">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AF9" t="n">
-        <v>80.77922077922101</v>
+        <v>80.927835051546</v>
       </c>
       <c r="AG9" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AH9" t="n">
         <v>138</v>
       </c>
       <c r="AI9" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AJ9" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="n">
         <v>12</v>
@@ -3674,13 +3674,13 @@
         <v>45</v>
       </c>
       <c r="BB9" t="n">
-        <v>44.554455445545</v>
+        <v>44.117647058824</v>
       </c>
       <c r="BC9" t="n">
         <v>26</v>
       </c>
       <c r="BD9" t="n">
-        <v>41.935483870968</v>
+        <v>41.269841269841</v>
       </c>
       <c r="BE9" t="n">
         <v>19</v>
@@ -3689,7 +3689,7 @@
         <v>48.717948717949</v>
       </c>
       <c r="BG9" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BH9" t="n">
         <v>12</v>
@@ -3719,10 +3719,10 @@
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>124.9</v>
+        <v>131.5</v>
       </c>
       <c r="BR9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS9" t="n">
         <v>1</v>
@@ -3752,13 +3752,13 @@
         <v>4</v>
       </c>
       <c r="CB9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CC9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CD9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="CR9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CS9" t="n">
         <v>14</v>
@@ -3809,7 +3809,7 @@
         <v>13</v>
       </c>
       <c r="CU9" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CV9" t="n">
         <v>20</v>
@@ -3845,7 +3845,7 @@
         <v>156</v>
       </c>
       <c r="DG9" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3883,16 +3883,16 @@
         <v>548178</v>
       </c>
       <c r="E10" t="n">
-        <v>7.0458333333333</v>
+        <v>7.052</v>
       </c>
       <c r="F10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" t="n">
-        <v>1703</v>
+        <v>1793</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -3904,7 +3904,7 @@
         <v>3.906</v>
       </c>
       <c r="L10" t="n">
-        <v>283.83333333333</v>
+        <v>298.83333333333</v>
       </c>
       <c r="M10" t="n">
         <v>49</v>
@@ -3949,10 +3949,10 @@
         <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.04252767</v>
+        <v>2.05614677</v>
       </c>
       <c r="AB10" t="n">
-        <v>1003</v>
+        <v>1036</v>
       </c>
       <c r="AC10" t="n">
         <v>2</v>
@@ -3961,22 +3961,22 @@
         <v>25</v>
       </c>
       <c r="AE10" t="n">
-        <v>600</v>
+        <v>619</v>
       </c>
       <c r="AF10" t="n">
-        <v>83.798882681564</v>
+        <v>83.87533875338799</v>
       </c>
       <c r="AG10" t="n">
-        <v>716</v>
+        <v>738</v>
       </c>
       <c r="AH10" t="n">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="AI10" t="n">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="AJ10" t="n">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AK10" t="n">
         <v>29</v>
@@ -3994,19 +3994,19 @@
         <v>9</v>
       </c>
       <c r="AP10" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR10" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AS10" t="n">
         <v>13</v>
       </c>
       <c r="AT10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU10" t="n">
         <v>18</v>
@@ -4027,37 +4027,37 @@
         <v>28.571428571429</v>
       </c>
       <c r="BA10" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="BB10" t="n">
+        <v>60.119047619048</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>75</v>
+      </c>
+      <c r="BD10" t="n">
         <v>60</v>
       </c>
-      <c r="BC10" t="n">
-        <v>71</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>58.677685950413</v>
-      </c>
       <c r="BE10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BF10" t="n">
-        <v>64.102564102564</v>
+        <v>60.46511627907</v>
       </c>
       <c r="BG10" t="n">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="BH10" t="n">
         <v>26</v>
       </c>
       <c r="BI10" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="BJ10" t="n">
         <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BL10" t="n">
         <v>0</v>
@@ -4069,22 +4069,22 @@
         <v>1</v>
       </c>
       <c r="BO10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BP10" t="n">
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>169.1</v>
+        <v>176.3</v>
       </c>
       <c r="BR10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BS10" t="n">
         <v>7</v>
       </c>
       <c r="BT10" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4096,7 +4096,7 @@
         <v>1</v>
       </c>
       <c r="BX10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY10" t="n">
         <v>11</v>
@@ -4111,10 +4111,10 @@
         <v>9</v>
       </c>
       <c r="CC10" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="CD10" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="CE10" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CK10" t="n">
         <v>7</v>
@@ -4165,10 +4165,10 @@
         <v>59</v>
       </c>
       <c r="CU10" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="CV10" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="CW10" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>78</v>
       </c>
       <c r="DA10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DB10" t="n">
         <v>50</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="DG10" t="n">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4595,16 +4595,16 @@
         <v>829570</v>
       </c>
       <c r="E12" t="n">
-        <v>6.65</v>
+        <v>6.5333333333333</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -4612,12 +4612,14 @@
       <c r="J12" t="n">
         <v>0</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0.0243</v>
+      </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -4659,10 +4661,10 @@
         <v>1</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.2482711</v>
+        <v>0.2725636</v>
       </c>
       <c r="AB12" t="n">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -4671,22 +4673,22 @@
         <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="AF12" t="n">
-        <v>77.777777777778</v>
+        <v>85.454545454545</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AH12" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AK12" t="n">
         <v>0</v>
@@ -4698,7 +4700,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>11.111111111111</v>
+        <v>7.1428571428571</v>
       </c>
       <c r="AO12" t="n">
         <v>0</v>
@@ -4713,7 +4715,7 @@
         <v>4</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12" t="n">
         <v>0</v>
@@ -4731,64 +4733,64 @@
         <v>0</v>
       </c>
       <c r="AY12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ12" t="n">
-        <v>33.333333333333</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BA12" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>26.315789473684</v>
+      </c>
+      <c r="BC12" t="n">
         <v>4</v>
       </c>
-      <c r="BB12" t="n">
-        <v>30.769230769231</v>
-      </c>
-      <c r="BC12" t="n">
+      <c r="BD12" t="n">
+        <v>28.571428571429</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>20</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>32</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="BR12" t="n">
         <v>3</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>25</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>22</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>2</v>
       </c>
       <c r="BS12" t="n">
         <v>1</v>
@@ -4800,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW12" t="n">
         <v>0</v>
@@ -4815,16 +4817,16 @@
         <v>0</v>
       </c>
       <c r="CA12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CC12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CE12" t="n">
         <v>0</v>
@@ -4842,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CK12" t="n">
         <v>0</v>
@@ -4869,16 +4871,16 @@
         <v>2</v>
       </c>
       <c r="CS12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CT12" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="CU12" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="CV12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CW12" t="n">
         <v>0</v>
@@ -4908,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="DG12" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -4949,16 +4951,16 @@
         <v>928800</v>
       </c>
       <c r="E13" t="n">
-        <v>6.7076923076923</v>
+        <v>6.6642857142857</v>
       </c>
       <c r="F13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>395</v>
+        <v>485</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -4970,7 +4972,7 @@
         <v>1.696</v>
       </c>
       <c r="L13" t="n">
-        <v>197.5</v>
+        <v>242.5</v>
       </c>
       <c r="M13" t="n">
         <v>10</v>
@@ -5015,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.14325613</v>
+        <v>0.1473246</v>
       </c>
       <c r="AB13" t="n">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -5027,28 +5029,28 @@
         <v>4</v>
       </c>
       <c r="AE13" t="n">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="AF13" t="n">
-        <v>84.93975903614501</v>
+        <v>82.795698924731</v>
       </c>
       <c r="AG13" t="n">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="AH13" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AI13" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="AJ13" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AK13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL13" t="n">
-        <v>40</v>
+        <v>33.333333333333</v>
       </c>
       <c r="AM13" t="n">
         <v>2</v>
@@ -5066,13 +5068,13 @@
         <v>4</v>
       </c>
       <c r="AR13" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AS13" t="n">
         <v>4</v>
       </c>
       <c r="AT13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU13" t="n">
         <v>3</v>
@@ -5093,32 +5095,32 @@
         <v>42.857142857143</v>
       </c>
       <c r="BA13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB13" t="n">
-        <v>42.5</v>
+        <v>38.297872340426</v>
       </c>
       <c r="BC13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD13" t="n">
-        <v>48.387096774194</v>
+        <v>45.714285714286</v>
       </c>
       <c r="BE13" t="n">
         <v>2</v>
       </c>
       <c r="BF13" t="n">
-        <v>22.222222222222</v>
+        <v>16.666666666667</v>
       </c>
       <c r="BG13" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="BH13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI13" t="n">
         <v>4</v>
       </c>
-      <c r="BI13" t="n">
-        <v>3</v>
-      </c>
       <c r="BJ13" t="n">
         <v>0</v>
       </c>
@@ -5135,22 +5137,22 @@
         <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BP13" t="n">
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>87.2</v>
+        <v>93.3</v>
       </c>
       <c r="BR13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BS13" t="n">
         <v>2</v>
       </c>
       <c r="BT13" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5174,13 +5176,13 @@
         <v>1</v>
       </c>
       <c r="CB13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CC13" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="CD13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CE13" t="n">
         <v>0</v>
@@ -5198,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CK13" t="n">
         <v>2</v>
@@ -5231,10 +5233,10 @@
         <v>11</v>
       </c>
       <c r="CU13" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="CV13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="CW13" t="n">
         <v>0</v>
@@ -5246,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="DA13" t="n">
         <v>7</v>
@@ -5264,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="DG13" t="n">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -6015,16 +6017,16 @@
         <v>822518</v>
       </c>
       <c r="E16" t="n">
-        <v>6.925</v>
+        <v>6.924</v>
       </c>
       <c r="F16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H16" t="n">
-        <v>2071</v>
+        <v>2161</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -6081,10 +6083,10 @@
         <v>2</v>
       </c>
       <c r="AA16" t="n">
-        <v>3.18095703</v>
+        <v>3.1877538</v>
       </c>
       <c r="AB16" t="n">
-        <v>1481</v>
+        <v>1522</v>
       </c>
       <c r="AC16" t="n">
         <v>6</v>
@@ -6093,28 +6095,28 @@
         <v>38</v>
       </c>
       <c r="AE16" t="n">
-        <v>744</v>
+        <v>769</v>
       </c>
       <c r="AF16" t="n">
-        <v>81.938325991189</v>
+        <v>82.15811965812</v>
       </c>
       <c r="AG16" t="n">
-        <v>908</v>
+        <v>936</v>
       </c>
       <c r="AH16" t="n">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="AI16" t="n">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="AJ16" t="n">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="AK16" t="n">
         <v>35</v>
       </c>
       <c r="AL16" t="n">
-        <v>39.772727272727</v>
+        <v>39.325842696629</v>
       </c>
       <c r="AM16" t="n">
         <v>24</v>
@@ -6132,13 +6134,13 @@
         <v>5</v>
       </c>
       <c r="AR16" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AS16" t="n">
         <v>10</v>
       </c>
       <c r="AT16" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AU16" t="n">
         <v>5</v>
@@ -6159,31 +6161,31 @@
         <v>50.793650793651</v>
       </c>
       <c r="BA16" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="BB16" t="n">
-        <v>58.720930232558</v>
+        <v>59.444444444444</v>
       </c>
       <c r="BC16" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="BD16" t="n">
-        <v>59.210526315789</v>
+        <v>59.872611464968</v>
       </c>
       <c r="BE16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BF16" t="n">
-        <v>55</v>
+        <v>56.521739130435</v>
       </c>
       <c r="BG16" t="n">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="BH16" t="n">
         <v>10</v>
       </c>
       <c r="BI16" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="BJ16" t="n">
         <v>1</v>
@@ -6201,22 +6203,22 @@
         <v>3</v>
       </c>
       <c r="BO16" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BP16" t="n">
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>166.2</v>
+        <v>173.1</v>
       </c>
       <c r="BR16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BS16" t="n">
         <v>2</v>
       </c>
       <c r="BT16" t="n">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
@@ -6240,13 +6242,13 @@
         <v>7</v>
       </c>
       <c r="CB16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CC16" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="CD16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CE16" t="n">
         <v>0</v>
@@ -6264,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CK16" t="n">
         <v>9</v>
@@ -6297,10 +6299,10 @@
         <v>107</v>
       </c>
       <c r="CU16" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="CV16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CW16" t="n">
         <v>0</v>
@@ -6312,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="DA16" t="n">
         <v>13</v>
@@ -6330,10 +6332,10 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="DG16" t="n">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="DH16" t="n">
         <v>0</v>
@@ -6727,16 +6729,16 @@
         <v>847467</v>
       </c>
       <c r="E18" t="n">
-        <v>6.7181818181818</v>
+        <v>6.7217391304348</v>
       </c>
       <c r="F18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H18" t="n">
-        <v>1979</v>
+        <v>2069</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -6793,10 +6795,10 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.439296</v>
+        <v>0.44385674</v>
       </c>
       <c r="AB18" t="n">
-        <v>1601</v>
+        <v>1657</v>
       </c>
       <c r="AC18" t="n">
         <v>1</v>
@@ -6805,28 +6807,28 @@
         <v>5</v>
       </c>
       <c r="AE18" t="n">
-        <v>1239</v>
+        <v>1279</v>
       </c>
       <c r="AF18" t="n">
-        <v>91.84581171238</v>
+        <v>91.882183908046</v>
       </c>
       <c r="AG18" t="n">
-        <v>1349</v>
+        <v>1392</v>
       </c>
       <c r="AH18" t="n">
-        <v>833</v>
+        <v>865</v>
       </c>
       <c r="AI18" t="n">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="AJ18" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK18" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AL18" t="n">
-        <v>61.95652173913</v>
+        <v>61.702127659574</v>
       </c>
       <c r="AM18" t="n">
         <v>1</v>
@@ -6835,7 +6837,7 @@
         <v>25</v>
       </c>
       <c r="AO18" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AP18" t="n">
         <v>22</v>
@@ -6844,13 +6846,13 @@
         <v>3</v>
       </c>
       <c r="AR18" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AS18" t="n">
         <v>4</v>
       </c>
       <c r="AT18" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="AU18" t="n">
         <v>2</v>
@@ -6865,34 +6867,34 @@
         <v>0</v>
       </c>
       <c r="AY18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ18" t="n">
-        <v>80</v>
+        <v>82.35294117647101</v>
       </c>
       <c r="BA18" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="BB18" t="n">
-        <v>47.852760736196</v>
+        <v>48.235294117647</v>
       </c>
       <c r="BC18" t="n">
+        <v>52</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>46.428571428571</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>30</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>51.724137931034</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>140</v>
+      </c>
+      <c r="BH18" t="n">
         <v>50</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>46.296296296296</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>28</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>50.909090909091</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>136</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>49</v>
       </c>
       <c r="BI18" t="n">
         <v>16</v>
@@ -6913,22 +6915,22 @@
         <v>3</v>
       </c>
       <c r="BO18" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BP18" t="n">
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>147.8</v>
+        <v>154.6</v>
       </c>
       <c r="BR18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS18" t="n">
         <v>0</v>
       </c>
       <c r="BT18" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
@@ -6952,10 +6954,10 @@
         <v>1</v>
       </c>
       <c r="CB18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CC18" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="CD18" t="n">
         <v>20</v>
@@ -6976,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CK18" t="n">
         <v>7</v>
@@ -7003,16 +7005,16 @@
         <v>5</v>
       </c>
       <c r="CS18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CT18" t="n">
         <v>4</v>
       </c>
       <c r="CU18" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="CV18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CW18" t="n">
         <v>0</v>
@@ -7024,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="DA18" t="n">
         <v>12</v>
@@ -7042,10 +7044,10 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>881</v>
+        <v>914</v>
       </c>
       <c r="DG18" t="n">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="DH18" t="n">
         <v>6</v>
@@ -7793,16 +7795,16 @@
         <v>893998</v>
       </c>
       <c r="E21" t="n">
-        <v>6.725</v>
+        <v>6.7095238095238</v>
       </c>
       <c r="F21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H21" t="n">
-        <v>1336</v>
+        <v>1426</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -7811,13 +7813,13 @@
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>1.4509</v>
+        <v>1.4757</v>
       </c>
       <c r="L21" t="n">
-        <v>1336</v>
+        <v>1426</v>
       </c>
       <c r="M21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N21" t="n">
         <v>3</v>
@@ -7826,7 +7828,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="n">
-        <v>9.090909090909101</v>
+        <v>8.3333333333333</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -7859,10 +7861,10 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.94168869</v>
+        <v>0.9463488799999999</v>
       </c>
       <c r="AB21" t="n">
-        <v>981</v>
+        <v>1022</v>
       </c>
       <c r="AC21" t="n">
         <v>2</v>
@@ -7871,28 +7873,28 @@
         <v>7</v>
       </c>
       <c r="AE21" t="n">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="AF21" t="n">
-        <v>83.55614973262</v>
+        <v>83.098591549296</v>
       </c>
       <c r="AG21" t="n">
-        <v>748</v>
+        <v>781</v>
       </c>
       <c r="AH21" t="n">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="AI21" t="n">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="AJ21" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AL21" t="n">
-        <v>46.875</v>
+        <v>45.871559633028</v>
       </c>
       <c r="AM21" t="n">
         <v>4</v>
@@ -7901,7 +7903,7 @@
         <v>16.666666666667</v>
       </c>
       <c r="AO21" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AP21" t="n">
         <v>22</v>
@@ -7910,13 +7912,13 @@
         <v>1</v>
       </c>
       <c r="AR21" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AS21" t="n">
         <v>7</v>
       </c>
       <c r="AT21" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AU21" t="n">
         <v>3</v>
@@ -7937,28 +7939,28 @@
         <v>50</v>
       </c>
       <c r="BA21" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BB21" t="n">
-        <v>56.55737704918</v>
+        <v>56.451612903226</v>
       </c>
       <c r="BC21" t="n">
         <v>47</v>
       </c>
       <c r="BD21" t="n">
-        <v>59.493670886076</v>
+        <v>58.75</v>
       </c>
       <c r="BE21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BF21" t="n">
-        <v>51.162790697674</v>
+        <v>52.272727272727</v>
       </c>
       <c r="BG21" t="n">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="BH21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BI21" t="n">
         <v>19</v>
@@ -7967,7 +7969,7 @@
         <v>3</v>
       </c>
       <c r="BK21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BL21" t="n">
         <v>0</v>
@@ -7979,28 +7981,28 @@
         <v>2</v>
       </c>
       <c r="BO21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BP21" t="n">
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>134.5</v>
+        <v>140.9</v>
       </c>
       <c r="BR21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS21" t="n">
         <v>1</v>
       </c>
       <c r="BT21" t="n">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="BU21" t="n">
         <v>0</v>
       </c>
       <c r="BV21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BW21" t="n">
         <v>0</v>
@@ -8012,7 +8014,7 @@
         <v>0</v>
       </c>
       <c r="BZ21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CA21" t="n">
         <v>2</v>
@@ -8021,10 +8023,10 @@
         <v>3</v>
       </c>
       <c r="CC21" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="CD21" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="CE21" t="n">
         <v>0</v>
@@ -8042,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="CJ21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CK21" t="n">
         <v>7</v>
@@ -8075,7 +8077,7 @@
         <v>24</v>
       </c>
       <c r="CU21" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="CV21" t="n">
         <v>21</v>
@@ -8090,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="DA21" t="n">
         <v>17</v>
@@ -8108,10 +8110,10 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="DG21" t="n">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="DH21" t="n">
         <v>17</v>
@@ -8149,16 +8151,16 @@
         <v>972886</v>
       </c>
       <c r="E22" t="n">
-        <v>6.9533333333333</v>
+        <v>6.9</v>
       </c>
       <c r="F22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H22" t="n">
-        <v>944</v>
+        <v>1034</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -8167,13 +8169,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5760999999999999</v>
+        <v>0.5954</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N22" t="n">
         <v>3</v>
@@ -8215,10 +8217,10 @@
         <v>1</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.40660281</v>
+        <v>1.40750296</v>
       </c>
       <c r="AB22" t="n">
-        <v>651</v>
+        <v>716</v>
       </c>
       <c r="AC22" t="n">
         <v>3</v>
@@ -8227,37 +8229,37 @@
         <v>16</v>
       </c>
       <c r="AE22" t="n">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="AF22" t="n">
-        <v>86.215538847118</v>
+        <v>85.081585081585</v>
       </c>
       <c r="AG22" t="n">
-        <v>399</v>
+        <v>429</v>
       </c>
       <c r="AH22" t="n">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="AI22" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AJ22" t="n">
         <v>99</v>
       </c>
       <c r="AK22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL22" t="n">
-        <v>48.571428571429</v>
+        <v>46.153846153846</v>
       </c>
       <c r="AM22" t="n">
         <v>7</v>
       </c>
       <c r="AN22" t="n">
-        <v>24.137931034483</v>
+        <v>23.333333333333</v>
       </c>
       <c r="AO22" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AP22" t="n">
         <v>11</v>
@@ -8266,16 +8268,16 @@
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AT22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV22" t="n">
         <v>1</v>
@@ -8287,37 +8289,37 @@
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ22" t="n">
-        <v>50</v>
+        <v>57.575757575758</v>
       </c>
       <c r="BA22" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="BB22" t="n">
-        <v>60.909090909091</v>
+        <v>58.778625954198</v>
       </c>
       <c r="BC22" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="BD22" t="n">
-        <v>62.886597938144</v>
+        <v>60.344827586207</v>
       </c>
       <c r="BE22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF22" t="n">
-        <v>46.153846153846</v>
+        <v>46.666666666667</v>
       </c>
       <c r="BG22" t="n">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="BH22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI22" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="BJ22" t="n">
         <v>1</v>
@@ -8335,22 +8337,22 @@
         <v>0</v>
       </c>
       <c r="BO22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BP22" t="n">
         <v>0</v>
       </c>
       <c r="BQ22" t="n">
-        <v>104.3</v>
+        <v>110.4</v>
       </c>
       <c r="BR22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS22" t="n">
         <v>1</v>
       </c>
       <c r="BT22" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="BU22" t="n">
         <v>0</v>
@@ -8371,19 +8373,19 @@
         <v>9</v>
       </c>
       <c r="CA22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CB22" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="CC22" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="CD22" t="n">
         <v>21</v>
       </c>
       <c r="CE22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF22" t="n">
         <v>0</v>
@@ -8398,7 +8400,7 @@
         <v>0</v>
       </c>
       <c r="CJ22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CK22" t="n">
         <v>5</v>
@@ -8425,16 +8427,16 @@
         <v>16</v>
       </c>
       <c r="CS22" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="CT22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CU22" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="CV22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CW22" t="n">
         <v>0</v>
@@ -8446,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="DA22" t="n">
         <v>7</v>
@@ -8464,16 +8466,16 @@
         <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="DG22" t="n">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="DH22" t="n">
         <v>0</v>
       </c>
       <c r="DI22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DJ22" t="n">
         <v>2170173</v>
@@ -8859,16 +8861,16 @@
         <v>69378</v>
       </c>
       <c r="E24" t="n">
-        <v>6.7875</v>
+        <v>6.76</v>
       </c>
       <c r="F24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H24" t="n">
-        <v>2160</v>
+        <v>2250</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -8923,10 +8925,10 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.03484793</v>
+        <v>0.03583312</v>
       </c>
       <c r="AB24" t="n">
-        <v>888</v>
+        <v>931</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -8935,28 +8937,28 @@
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="AF24" t="n">
-        <v>67.872648335745</v>
+        <v>66.206896551724</v>
       </c>
       <c r="AG24" t="n">
-        <v>691</v>
+        <v>725</v>
       </c>
       <c r="AH24" t="n">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="AI24" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK24" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AL24" t="n">
-        <v>35.223880597015</v>
+        <v>33.333333333333</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
@@ -8974,7 +8976,7 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="AS24" t="n">
         <v>2</v>
@@ -9019,7 +9021,7 @@
         <v>80</v>
       </c>
       <c r="BG24" t="n">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="BH24" t="n">
         <v>0</v>
@@ -9037,28 +9039,28 @@
         <v>0</v>
       </c>
       <c r="BM24" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="BN24" t="n">
         <v>3</v>
       </c>
       <c r="BO24" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BP24" t="n">
         <v>1</v>
       </c>
       <c r="BQ24" t="n">
-        <v>162.9</v>
+        <v>169</v>
       </c>
       <c r="BR24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BS24" t="n">
         <v>0</v>
       </c>
       <c r="BT24" t="n">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="BU24" t="n">
         <v>0</v>
@@ -9085,10 +9087,10 @@
         <v>0</v>
       </c>
       <c r="CC24" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="CD24" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CE24" t="n">
         <v>0</v>
@@ -9100,13 +9102,13 @@
         <v>5</v>
       </c>
       <c r="CH24" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="CI24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CJ24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CK24" t="n">
         <v>9</v>
@@ -9154,7 +9156,7 @@
         <v>0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="DA24" t="n">
         <v>0</v>
@@ -9172,13 +9174,13 @@
         <v>13</v>
       </c>
       <c r="DF24" t="n">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="DG24" t="n">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="DH24" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="DI24" t="n">
         <v>0</v>
@@ -9192,7 +9194,7 @@
         </is>
       </c>
       <c r="DL24" t="n">
-        <v>-1.9649</v>
+        <v>-2.8733</v>
       </c>
     </row>
   </sheetData>

--- a/sofaplayer/Serie_A/Fiorentina_stats.xlsx
+++ b/sofaplayer/Serie_A/Fiorentina_stats.xlsx
@@ -1035,7 +1035,7 @@
         <v>835601</v>
       </c>
       <c r="E2" t="n">
-        <v>6.6772727272727</v>
+        <v>6.6727272727273</v>
       </c>
       <c r="F2" t="n">
         <v>22</v>
@@ -1182,7 +1182,7 @@
         <v>89</v>
       </c>
       <c r="BB2" t="n">
-        <v>45.408163265306</v>
+        <v>45.177664974619</v>
       </c>
       <c r="BC2" t="n">
         <v>65</v>
@@ -1194,7 +1194,7 @@
         <v>24</v>
       </c>
       <c r="BF2" t="n">
-        <v>48</v>
+        <v>47.058823529412</v>
       </c>
       <c r="BG2" t="n">
         <v>164</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>146.9</v>
+        <v>146.8</v>
       </c>
       <c r="BR2" t="n">
         <v>22</v>
@@ -1317,10 +1317,10 @@
         <v>6</v>
       </c>
       <c r="CU2" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="CV2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P4" t="n">
         <v>5.7142857142857</v>
@@ -2525,10 +2525,10 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.88937725</v>
+        <v>0.88905701</v>
       </c>
       <c r="AB6" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AC6" t="n">
         <v>2</v>
@@ -2579,7 +2579,7 @@
         <v>12</v>
       </c>
       <c r="AS6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT6" t="n">
         <v>3</v>
@@ -2597,22 +2597,22 @@
         <v>0</v>
       </c>
       <c r="AY6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ6" t="n">
-        <v>68.421052631579</v>
+        <v>70</v>
       </c>
       <c r="BA6" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>70.731707317073</v>
+      </c>
+      <c r="BC6" t="n">
         <v>28</v>
       </c>
-      <c r="BB6" t="n">
-        <v>71.79487179487199</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>27</v>
-      </c>
       <c r="BD6" t="n">
-        <v>71.052631578947</v>
+        <v>70</v>
       </c>
       <c r="BE6" t="n">
         <v>1</v>
@@ -2735,13 +2735,13 @@
         <v>10</v>
       </c>
       <c r="CS6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CT6" t="n">
         <v>25</v>
       </c>
       <c r="CU6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CV6" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>3</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.85643973</v>
+        <v>2.86100943</v>
       </c>
       <c r="AB7" t="n">
         <v>1372</v>
@@ -3593,13 +3593,13 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.31172025</v>
+        <v>0.43766894</v>
       </c>
       <c r="AB9" t="n">
         <v>549</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" t="n">
         <v>3</v>
@@ -3949,10 +3949,10 @@
         <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.05614677</v>
+        <v>2.05611307</v>
       </c>
       <c r="AB10" t="n">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="AC10" t="n">
         <v>2</v>
@@ -4027,10 +4027,10 @@
         <v>28.571428571429</v>
       </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="BB10" t="n">
-        <v>60.119047619048</v>
+        <v>60.355029585799</v>
       </c>
       <c r="BC10" t="n">
         <v>75</v>
@@ -4039,10 +4039,10 @@
         <v>60</v>
       </c>
       <c r="BE10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BF10" t="n">
-        <v>60.46511627907</v>
+        <v>61.363636363636</v>
       </c>
       <c r="BG10" t="n">
         <v>197</v>
@@ -4595,7 +4595,7 @@
         <v>829570</v>
       </c>
       <c r="E12" t="n">
-        <v>6.5333333333333</v>
+        <v>6.5666666666667</v>
       </c>
       <c r="F12" t="n">
         <v>3</v>
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="BR12" t="n">
         <v>3</v>
@@ -5017,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.1473246</v>
+        <v>0.14727572</v>
       </c>
       <c r="AB13" t="n">
         <v>277</v>
@@ -5038,10 +5038,10 @@
         <v>186</v>
       </c>
       <c r="AH13" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI13" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ13" t="n">
         <v>45</v>
@@ -5266,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="DG13" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -6158,7 +6158,7 @@
         <v>32</v>
       </c>
       <c r="AZ16" t="n">
-        <v>50.793650793651</v>
+        <v>50</v>
       </c>
       <c r="BA16" t="n">
         <v>107</v>
@@ -6242,7 +6242,7 @@
         <v>7</v>
       </c>
       <c r="CB16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CC16" t="n">
         <v>64</v>
@@ -6293,7 +6293,7 @@
         <v>38</v>
       </c>
       <c r="CS16" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CT16" t="n">
         <v>107</v>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.44385674</v>
+        <v>0.44385719</v>
       </c>
       <c r="AB18" t="n">
         <v>1657</v>
@@ -7861,7 +7861,7 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.9463488799999999</v>
+        <v>0.94623161</v>
       </c>
       <c r="AB21" t="n">
         <v>1022</v>
@@ -7882,10 +7882,10 @@
         <v>781</v>
       </c>
       <c r="AH21" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AI21" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AJ21" t="n">
         <v>97</v>
@@ -7942,7 +7942,7 @@
         <v>70</v>
       </c>
       <c r="BB21" t="n">
-        <v>56.451612903226</v>
+        <v>56</v>
       </c>
       <c r="BC21" t="n">
         <v>47</v>
@@ -7954,7 +7954,7 @@
         <v>23</v>
       </c>
       <c r="BF21" t="n">
-        <v>52.272727272727</v>
+        <v>51.111111111111</v>
       </c>
       <c r="BG21" t="n">
         <v>177</v>
@@ -8077,10 +8077,10 @@
         <v>24</v>
       </c>
       <c r="CU21" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CV21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -8110,10 +8110,10 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="DG21" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="DH21" t="n">
         <v>17</v>
@@ -8151,7 +8151,7 @@
         <v>972886</v>
       </c>
       <c r="E22" t="n">
-        <v>6.9</v>
+        <v>6.90625</v>
       </c>
       <c r="F22" t="n">
         <v>16</v>
@@ -8217,7 +8217,7 @@
         <v>1</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.40750296</v>
+        <v>1.40750251</v>
       </c>
       <c r="AB22" t="n">
         <v>716</v>
@@ -8271,7 +8271,7 @@
         <v>70</v>
       </c>
       <c r="AS22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT22" t="n">
         <v>15</v>
@@ -8298,13 +8298,13 @@
         <v>77</v>
       </c>
       <c r="BB22" t="n">
-        <v>58.778625954198</v>
+        <v>59.68992248062</v>
       </c>
       <c r="BC22" t="n">
         <v>70</v>
       </c>
       <c r="BD22" t="n">
-        <v>60.344827586207</v>
+        <v>61.40350877193</v>
       </c>
       <c r="BE22" t="n">
         <v>7</v>
@@ -8343,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="BQ22" t="n">
-        <v>110.4</v>
+        <v>110.5</v>
       </c>
       <c r="BR22" t="n">
         <v>16</v>
@@ -8376,7 +8376,7 @@
         <v>5</v>
       </c>
       <c r="CB22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="CC22" t="n">
         <v>42</v>
@@ -8433,7 +8433,7 @@
         <v>30</v>
       </c>
       <c r="CU22" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="CV22" t="n">
         <v>8</v>
@@ -8861,7 +8861,7 @@
         <v>69378</v>
       </c>
       <c r="E24" t="n">
-        <v>6.76</v>
+        <v>6.764</v>
       </c>
       <c r="F24" t="n">
         <v>25</v>
@@ -8925,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.03583312</v>
+        <v>0.03572318</v>
       </c>
       <c r="AB24" t="n">
         <v>931</v>
@@ -9051,7 +9051,7 @@
         <v>1</v>
       </c>
       <c r="BQ24" t="n">
-        <v>169</v>
+        <v>169.1</v>
       </c>
       <c r="BR24" t="n">
         <v>25</v>
@@ -9117,10 +9117,10 @@
         <v>6</v>
       </c>
       <c r="CM24" t="n">
+        <v>6</v>
+      </c>
+      <c r="CN24" t="n">
         <v>5</v>
-      </c>
-      <c r="CN24" t="n">
-        <v>4</v>
       </c>
       <c r="CO24" t="n">
         <v>8</v>
@@ -9194,7 +9194,7 @@
         </is>
       </c>
       <c r="DL24" t="n">
-        <v>-2.8733</v>
+        <v>-2.8619</v>
       </c>
     </row>
   </sheetData>
